--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500" tabRatio="809" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="809" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
     <sheet name="AIConfig_2" sheetId="7" r:id="rId2"/>
+    <sheet name="AIConfig_3" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
   <si>
     <t>cs</t>
   </si>
@@ -75,6 +76,24 @@
   </si>
   <si>
     <t>巡逻</t>
+  </si>
+  <si>
+    <t>AI_HeroAttack</t>
+  </si>
+  <si>
+    <t>英雄攻击</t>
+  </si>
+  <si>
+    <t>AI_HeroIdle</t>
+  </si>
+  <si>
+    <t>英雄休息</t>
+  </si>
+  <si>
+    <t>AI_HeroSkill</t>
+  </si>
+  <si>
+    <t>英雄技能</t>
   </si>
 </sst>
 </file>
@@ -82,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -109,7 +128,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,30 +223,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,8 +246,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,91 +256,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,13 +293,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,169 +425,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,26 +487,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,44 +546,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,153 +569,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -720,9 +739,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1051,139 +1070,139 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.60833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8583333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="9.60833333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.8583333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" ht="16.5" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" ht="16.5" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:8">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="3:7">
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f>D6*100+E6</f>
         <v>101</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" spans="3:7">
-      <c r="C7" s="2">
+    <row r="7" s="3" customFormat="1" ht="16.5" spans="3:7">
+      <c r="C7" s="1">
         <f>D7*100+E7</f>
         <v>102</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1198,125 +1217,125 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.60833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8583333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="9.60833333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.8583333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:8">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" ht="16.5" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" ht="16.5" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:8">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="3:7">
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f>D6*100+E6</f>
         <v>201</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1324,4 +1343,152 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <cols>
+    <col min="3" max="3" width="4.75" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="16.5" spans="3:8">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" ht="15" spans="3:8">
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="3:8">
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="3:8">
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="3:8">
+      <c r="C6" s="1">
+        <f>D6*100+E6</f>
+        <v>301</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" ht="16.5" spans="3:7">
+      <c r="C7" s="1">
+        <f>D7*100+E7</f>
+        <v>302</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="3:7">
+      <c r="C8">
+        <v>303</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>